--- a/biology/Zoologie/Inséparable_à_joues_noires/Inséparable_à_joues_noires.xlsx
+++ b/biology/Zoologie/Inséparable_à_joues_noires/Inséparable_à_joues_noires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable_%C3%A0_joues_noires</t>
+          <t>Inséparable_à_joues_noires</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agapornis nigrigenis
 L'Inséparable à joues noires (Agapornis nigrigenis) est une espèce d'oiseau appartenant à la famille des Psittacidae. Ce véritable petit perroquet africain est proche de l'Inséparable masqué (Agapornis personatus).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable_%C3%A0_joues_noires</t>
+          <t>Inséparable_à_joues_noires</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau présente un masque et les joues noirs, le sommet de la tête et la gorge brun rougeâtre. Les ailes sont vertes avec les rémiges externes plus foncées.
 Cet oiseau mesure environ 13 cm.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ins%C3%A9parable_%C3%A0_joues_noires</t>
+          <t>Inséparable_à_joues_noires</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est quasi-endémique à la Zambie. Il vit dans le parc national de Kafue, le long du Zambèze jusqu'aux chutes Victoria.
 </t>
